--- a/res/Development Log.xlsx
+++ b/res/Development Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\ECM2414-Card-Game\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\Source\repos\Programming Files - repos\Software Development\Coursework\ECM2414-Card-Game\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E042B-A4A9-44D2-98A5-44B981039752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991AB95-36EF-423A-92D7-493053034ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03E64FF8-3BC5-4669-B668-E0D7650BC561}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Development Log</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Design &amp; Testing</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,8 +497,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2">
+        <v>45606</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>

--- a/res/Development Log.xlsx
+++ b/res/Development Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\Source\repos\Programming Files - repos\Software Development\Coursework\ECM2414-Card-Game\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8991AB95-36EF-423A-92D7-493053034ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2677460-4C1F-4B0F-88E5-728EB33471F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03E64FF8-3BC5-4669-B668-E0D7650BC561}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Development Log</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Design &amp; Testing</t>
+  </si>
+  <si>
+    <t>Design &amp; Comments</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,12 +517,38 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2">
+        <v>45620</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2">
+        <v>45621</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>

--- a/res/Development Log.xlsx
+++ b/res/Development Log.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\Source\repos\Programming Files - repos\Software Development\Coursework\ECM2414-Card-Game\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\ECM2414-Card-Game\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2677460-4C1F-4B0F-88E5-728EB33471F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89F23F-0E7A-40BC-ABBE-E562FD33A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03E64FF8-3BC5-4669-B668-E0D7650BC561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Development Log</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Design &amp; Comments</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>Driver &amp; Observer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver  </t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,20 +563,72 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="2">
+        <v>45622</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="2">
+        <v>45624</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2">
+        <v>45626</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2">
+        <v>45628</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>

--- a/res/Development Log.xlsx
+++ b/res/Development Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\ECM2414-Card-Game\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89F23F-0E7A-40BC-ABBE-E562FD33A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4C3E3-1C39-41EC-9E3E-82B11B2604D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03E64FF8-3BC5-4669-B668-E0D7650BC561}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Development Log</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Driver  </t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,8 +634,21 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>

--- a/res/Development Log.xlsx
+++ b/res/Development Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Documents\ECM2414-Card-Game\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D4C3E3-1C39-41EC-9E3E-82B11B2604D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2787975-A6CD-4530-B4C1-475F89CA2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03E64FF8-3BC5-4669-B668-E0D7650BC561}"/>
   </bookViews>
@@ -110,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,7 +454,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,236 +470,232 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>730023810</v>
+      </c>
+      <c r="F4">
+        <v>730048830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>45591</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="B6" s="1">
+        <v>45606</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>730023810</v>
-      </c>
-      <c r="F7">
-        <v>730048830</v>
+      <c r="B7" s="1">
+        <v>45620</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>45591</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.625</v>
+      <c r="B8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.66666666666666663</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>45606</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.60416666666666663</v>
+      <c r="B9" s="1">
+        <v>45622</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D9">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>45620</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.83333333333333337</v>
+      <c r="B10" s="1">
+        <v>45624</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.45833333333333331</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>45621</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.66666666666666663</v>
+      <c r="B11" s="1">
+        <v>45626</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.625</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>45622</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="1">
+        <v>45628</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>45630</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.70833333333333337</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>45624</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.45833333333333331</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>45626</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>45628</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>45630</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
